--- a/dance_data.xlsx
+++ b/dance_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carzor4/Desktop/CS131/cs131-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F2EFA6-F597-E646-880F-41452DDBF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A2983815-3522-184A-8608-D35ABD00473C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7986DD8D-417C-AB4E-A5A2-FB3E5BD61089}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="213">
   <si>
     <t>CorbinHolooway1</t>
   </si>
@@ -97,13 +97,592 @@
   </si>
   <si>
     <t>Padding</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>frame1</t>
+  </si>
+  <si>
+    <t>frame2</t>
+  </si>
+  <si>
+    <t>frame3</t>
+  </si>
+  <si>
+    <t>frame4</t>
+  </si>
+  <si>
+    <t>frame5</t>
+  </si>
+  <si>
+    <t>frame6</t>
+  </si>
+  <si>
+    <t>frame7</t>
+  </si>
+  <si>
+    <t>frame8</t>
+  </si>
+  <si>
+    <t>frame9</t>
+  </si>
+  <si>
+    <t>frame10</t>
+  </si>
+  <si>
+    <t>frame11</t>
+  </si>
+  <si>
+    <t>frame12</t>
+  </si>
+  <si>
+    <t>frame13</t>
+  </si>
+  <si>
+    <t>frame14</t>
+  </si>
+  <si>
+    <t>frame15</t>
+  </si>
+  <si>
+    <t>frame16</t>
+  </si>
+  <si>
+    <t>frame17</t>
+  </si>
+  <si>
+    <t>frame18</t>
+  </si>
+  <si>
+    <t>frame19</t>
+  </si>
+  <si>
+    <t>frame20</t>
+  </si>
+  <si>
+    <t>frame21</t>
+  </si>
+  <si>
+    <t>frame22</t>
+  </si>
+  <si>
+    <t>frame23</t>
+  </si>
+  <si>
+    <t>frame24</t>
+  </si>
+  <si>
+    <t>frame25</t>
+  </si>
+  <si>
+    <t>frame26</t>
+  </si>
+  <si>
+    <t>frame27</t>
+  </si>
+  <si>
+    <t>frame28</t>
+  </si>
+  <si>
+    <t>frame29</t>
+  </si>
+  <si>
+    <t>frame30</t>
+  </si>
+  <si>
+    <t>frame31</t>
+  </si>
+  <si>
+    <t>frame32</t>
+  </si>
+  <si>
+    <t>frame33</t>
+  </si>
+  <si>
+    <t>frame34</t>
+  </si>
+  <si>
+    <t>frame35</t>
+  </si>
+  <si>
+    <t>frame36</t>
+  </si>
+  <si>
+    <t>frame37</t>
+  </si>
+  <si>
+    <t>frame38</t>
+  </si>
+  <si>
+    <t>frame39</t>
+  </si>
+  <si>
+    <t>frame40</t>
+  </si>
+  <si>
+    <t>frame41</t>
+  </si>
+  <si>
+    <t>frame42</t>
+  </si>
+  <si>
+    <t>frame43</t>
+  </si>
+  <si>
+    <t>frame44</t>
+  </si>
+  <si>
+    <t>frame45</t>
+  </si>
+  <si>
+    <t>frame46</t>
+  </si>
+  <si>
+    <t>frame47</t>
+  </si>
+  <si>
+    <t>frame48</t>
+  </si>
+  <si>
+    <t>frame49</t>
+  </si>
+  <si>
+    <t>frame50</t>
+  </si>
+  <si>
+    <t>frame51</t>
+  </si>
+  <si>
+    <t>frame52</t>
+  </si>
+  <si>
+    <t>frame53</t>
+  </si>
+  <si>
+    <t>frame54</t>
+  </si>
+  <si>
+    <t>frame55</t>
+  </si>
+  <si>
+    <t>frame56</t>
+  </si>
+  <si>
+    <t>frame57</t>
+  </si>
+  <si>
+    <t>frame58</t>
+  </si>
+  <si>
+    <t>frame59</t>
+  </si>
+  <si>
+    <t>frame60</t>
+  </si>
+  <si>
+    <t>frame61</t>
+  </si>
+  <si>
+    <t>frame62</t>
+  </si>
+  <si>
+    <t>frame63</t>
+  </si>
+  <si>
+    <t>frame64</t>
+  </si>
+  <si>
+    <t>frame65</t>
+  </si>
+  <si>
+    <t>frame66</t>
+  </si>
+  <si>
+    <t>frame67</t>
+  </si>
+  <si>
+    <t>frame68</t>
+  </si>
+  <si>
+    <t>frame69</t>
+  </si>
+  <si>
+    <t>frame70</t>
+  </si>
+  <si>
+    <t>frame71</t>
+  </si>
+  <si>
+    <t>frame72</t>
+  </si>
+  <si>
+    <t>frame73</t>
+  </si>
+  <si>
+    <t>frame74</t>
+  </si>
+  <si>
+    <t>frame75</t>
+  </si>
+  <si>
+    <t>frame76</t>
+  </si>
+  <si>
+    <t>frame77</t>
+  </si>
+  <si>
+    <t>frame78</t>
+  </si>
+  <si>
+    <t>frame79</t>
+  </si>
+  <si>
+    <t>frame80</t>
+  </si>
+  <si>
+    <t>frame81</t>
+  </si>
+  <si>
+    <t>frame82</t>
+  </si>
+  <si>
+    <t>frame83</t>
+  </si>
+  <si>
+    <t>frame84</t>
+  </si>
+  <si>
+    <t>frame85</t>
+  </si>
+  <si>
+    <t>frame86</t>
+  </si>
+  <si>
+    <t>frame87</t>
+  </si>
+  <si>
+    <t>frame88</t>
+  </si>
+  <si>
+    <t>frame89</t>
+  </si>
+  <si>
+    <t>frame90</t>
+  </si>
+  <si>
+    <t>frame91</t>
+  </si>
+  <si>
+    <t>frame92</t>
+  </si>
+  <si>
+    <t>frame93</t>
+  </si>
+  <si>
+    <t>frame94</t>
+  </si>
+  <si>
+    <t>frame95</t>
+  </si>
+  <si>
+    <t>frame96</t>
+  </si>
+  <si>
+    <t>frame97</t>
+  </si>
+  <si>
+    <t>frame98</t>
+  </si>
+  <si>
+    <t>frame99</t>
+  </si>
+  <si>
+    <t>frame100</t>
+  </si>
+  <si>
+    <t>frame101</t>
+  </si>
+  <si>
+    <t>frame102</t>
+  </si>
+  <si>
+    <t>frame103</t>
+  </si>
+  <si>
+    <t>frame104</t>
+  </si>
+  <si>
+    <t>frame105</t>
+  </si>
+  <si>
+    <t>frame106</t>
+  </si>
+  <si>
+    <t>frame107</t>
+  </si>
+  <si>
+    <t>frame108</t>
+  </si>
+  <si>
+    <t>frame109</t>
+  </si>
+  <si>
+    <t>frame110</t>
+  </si>
+  <si>
+    <t>frame111</t>
+  </si>
+  <si>
+    <t>frame112</t>
+  </si>
+  <si>
+    <t>frame113</t>
+  </si>
+  <si>
+    <t>frame114</t>
+  </si>
+  <si>
+    <t>frame115</t>
+  </si>
+  <si>
+    <t>frame116</t>
+  </si>
+  <si>
+    <t>frame117</t>
+  </si>
+  <si>
+    <t>frame118</t>
+  </si>
+  <si>
+    <t>frame119</t>
+  </si>
+  <si>
+    <t>frame120</t>
+  </si>
+  <si>
+    <t>frame121</t>
+  </si>
+  <si>
+    <t>frame122</t>
+  </si>
+  <si>
+    <t>frame123</t>
+  </si>
+  <si>
+    <t>frame124</t>
+  </si>
+  <si>
+    <t>frame125</t>
+  </si>
+  <si>
+    <t>frame126</t>
+  </si>
+  <si>
+    <t>frame127</t>
+  </si>
+  <si>
+    <t>frame128</t>
+  </si>
+  <si>
+    <t>frame129</t>
+  </si>
+  <si>
+    <t>frame130</t>
+  </si>
+  <si>
+    <t>frame131</t>
+  </si>
+  <si>
+    <t>frame132</t>
+  </si>
+  <si>
+    <t>frame133</t>
+  </si>
+  <si>
+    <t>frame134</t>
+  </si>
+  <si>
+    <t>frame135</t>
+  </si>
+  <si>
+    <t>frame136</t>
+  </si>
+  <si>
+    <t>frame137</t>
+  </si>
+  <si>
+    <t>frame138</t>
+  </si>
+  <si>
+    <t>frame139</t>
+  </si>
+  <si>
+    <t>frame140</t>
+  </si>
+  <si>
+    <t>frame141</t>
+  </si>
+  <si>
+    <t>frame142</t>
+  </si>
+  <si>
+    <t>frame143</t>
+  </si>
+  <si>
+    <t>frame144</t>
+  </si>
+  <si>
+    <t>frame145</t>
+  </si>
+  <si>
+    <t>frame146</t>
+  </si>
+  <si>
+    <t>frame147</t>
+  </si>
+  <si>
+    <t>frame148</t>
+  </si>
+  <si>
+    <t>frame149</t>
+  </si>
+  <si>
+    <t>frame150</t>
+  </si>
+  <si>
+    <t>frame151</t>
+  </si>
+  <si>
+    <t>frame152</t>
+  </si>
+  <si>
+    <t>frame153</t>
+  </si>
+  <si>
+    <t>frame154</t>
+  </si>
+  <si>
+    <t>frame155</t>
+  </si>
+  <si>
+    <t>frame156</t>
+  </si>
+  <si>
+    <t>frame157</t>
+  </si>
+  <si>
+    <t>frame158</t>
+  </si>
+  <si>
+    <t>frame159</t>
+  </si>
+  <si>
+    <t>frame160</t>
+  </si>
+  <si>
+    <t>frame161</t>
+  </si>
+  <si>
+    <t>frame162</t>
+  </si>
+  <si>
+    <t>frame163</t>
+  </si>
+  <si>
+    <t>frame164</t>
+  </si>
+  <si>
+    <t>frame165</t>
+  </si>
+  <si>
+    <t>frame166</t>
+  </si>
+  <si>
+    <t>frame167</t>
+  </si>
+  <si>
+    <t>frame168</t>
+  </si>
+  <si>
+    <t>frame169</t>
+  </si>
+  <si>
+    <t>frame170</t>
+  </si>
+  <si>
+    <t>frame171</t>
+  </si>
+  <si>
+    <t>frame172</t>
+  </si>
+  <si>
+    <t>frame173</t>
+  </si>
+  <si>
+    <t>frame174</t>
+  </si>
+  <si>
+    <t>frame175</t>
+  </si>
+  <si>
+    <t>frame176</t>
+  </si>
+  <si>
+    <t>frame177</t>
+  </si>
+  <si>
+    <t>frame178</t>
+  </si>
+  <si>
+    <t>frame179</t>
+  </si>
+  <si>
+    <t>frame180</t>
+  </si>
+  <si>
+    <t>frame181</t>
+  </si>
+  <si>
+    <t>frame182</t>
+  </si>
+  <si>
+    <t>frame183</t>
+  </si>
+  <si>
+    <t>frame184</t>
+  </si>
+  <si>
+    <t>frame185</t>
+  </si>
+  <si>
+    <t>frame186</t>
+  </si>
+  <si>
+    <t>frame187</t>
+  </si>
+  <si>
+    <t>frame188</t>
+  </si>
+  <si>
+    <t>frame189</t>
+  </si>
+  <si>
+    <t>frame190</t>
+  </si>
+  <si>
+    <t>frame191</t>
+  </si>
+  <si>
+    <t>frame192</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +695,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -455,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A3A91B-EF11-AD4A-AFD9-597118D765DF}">
-  <dimension ref="A1:GK15"/>
+  <dimension ref="A1:GK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BP4" sqref="BP4"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AX7" sqref="AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,660 +1055,1169 @@
   <sheetData>
     <row r="1" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S1" s="1">
-        <v>1</v>
-      </c>
-      <c r="T1" s="1">
-        <v>1</v>
-      </c>
-      <c r="U1" s="1">
-        <v>1</v>
-      </c>
-      <c r="V1" s="1">
-        <v>1</v>
-      </c>
-      <c r="W1" s="1">
-        <v>1</v>
-      </c>
-      <c r="X1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
-      <c r="DZ1" s="1"/>
-      <c r="EA1" s="1"/>
-      <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
-      <c r="EL1" s="1"/>
-      <c r="EM1" s="1"/>
-      <c r="EN1" s="1"/>
-      <c r="EO1" s="1"/>
-      <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
-      <c r="ER1" s="1"/>
-      <c r="ES1" s="1"/>
-      <c r="ET1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="EV1" s="1"/>
-      <c r="EW1" s="1"/>
-      <c r="EX1" s="1"/>
-      <c r="EY1" s="1"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="1"/>
-      <c r="FB1" s="1"/>
-      <c r="FC1" s="1"/>
-      <c r="FD1" s="1"/>
-      <c r="FE1" s="1"/>
-      <c r="FF1" s="1"/>
-      <c r="FG1" s="1"/>
-      <c r="FH1" s="1"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="1"/>
-      <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
-      <c r="FM1" s="1"/>
-      <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
-      <c r="FP1" s="1"/>
-      <c r="FQ1" s="1"/>
-      <c r="FR1" s="1"/>
-      <c r="FS1" s="1"/>
-      <c r="FT1" s="1"/>
-      <c r="FU1" s="1"/>
-      <c r="FV1" s="1"/>
-      <c r="FW1" s="1"/>
-      <c r="FX1" s="1"/>
-      <c r="FY1" s="1"/>
-      <c r="FZ1" s="1"/>
-      <c r="GA1" s="1"/>
-      <c r="GB1" s="1"/>
-      <c r="GC1" s="1"/>
-      <c r="GD1" s="1"/>
-      <c r="GE1" s="1"/>
-      <c r="GF1" s="1"/>
-      <c r="GG1" s="1"/>
-      <c r="GH1" s="1"/>
-      <c r="GI1" s="1"/>
-      <c r="GJ1" s="1"/>
-      <c r="GK1" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>152</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>157</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>158</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>161</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>165</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>166</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>168</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>169</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>171</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>182</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>183</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>184</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>186</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>187</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>189</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>190</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>191</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>192</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>194</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>195</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>196</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>198</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>199</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>200</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>207</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>208</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>209</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>210</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>211</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="2" spans="1:193" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
-      <c r="E2">
-        <v>-1</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-      <c r="M2">
-        <v>-1</v>
-      </c>
-      <c r="N2">
-        <v>-1</v>
-      </c>
-      <c r="O2">
-        <v>-1</v>
-      </c>
-      <c r="P2">
-        <v>-1</v>
-      </c>
-      <c r="Q2">
-        <v>-1</v>
-      </c>
-      <c r="R2">
-        <v>-1</v>
-      </c>
-      <c r="S2">
-        <v>-1</v>
-      </c>
-      <c r="T2">
-        <v>-1</v>
-      </c>
-      <c r="U2">
-        <v>-1</v>
-      </c>
-      <c r="V2">
-        <v>-1</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
-      <c r="AC2">
-        <v>-1</v>
-      </c>
-      <c r="AD2">
-        <v>-1</v>
-      </c>
-      <c r="AE2">
-        <v>-1</v>
-      </c>
-      <c r="AF2">
-        <v>-1</v>
-      </c>
-      <c r="AG2">
-        <v>-1</v>
-      </c>
-      <c r="AH2">
-        <v>-1</v>
-      </c>
-      <c r="AI2">
-        <v>-1</v>
-      </c>
-      <c r="AJ2">
-        <v>-1</v>
-      </c>
-      <c r="AK2">
-        <v>-1</v>
-      </c>
-      <c r="AL2">
-        <v>-1</v>
-      </c>
-      <c r="AM2">
-        <v>-1</v>
-      </c>
-      <c r="AN2">
-        <v>-1</v>
-      </c>
-      <c r="AO2">
-        <v>-1</v>
-      </c>
-      <c r="AP2">
-        <v>-1</v>
-      </c>
-      <c r="AQ2">
-        <v>-1</v>
-      </c>
-      <c r="AR2">
-        <v>-1</v>
-      </c>
-      <c r="AS2">
-        <v>3</v>
-      </c>
-      <c r="AT2">
-        <v>3</v>
-      </c>
-      <c r="AU2">
-        <v>3</v>
-      </c>
-      <c r="AV2">
-        <v>3</v>
-      </c>
-      <c r="AW2">
-        <v>3</v>
-      </c>
-      <c r="AX2">
-        <v>3</v>
-      </c>
-      <c r="AY2">
-        <v>3</v>
-      </c>
-      <c r="AZ2">
-        <v>3</v>
-      </c>
-      <c r="BA2">
-        <v>3</v>
-      </c>
-      <c r="BB2">
-        <v>3</v>
-      </c>
-      <c r="BC2">
-        <v>3</v>
-      </c>
-      <c r="BD2">
-        <v>3</v>
-      </c>
-      <c r="BE2">
-        <v>3</v>
-      </c>
-      <c r="BF2">
-        <v>3</v>
-      </c>
-      <c r="BG2">
-        <v>3</v>
-      </c>
-      <c r="BH2">
-        <v>3</v>
-      </c>
-      <c r="BI2">
-        <v>3</v>
-      </c>
-      <c r="BJ2">
-        <v>3</v>
-      </c>
-      <c r="BK2">
-        <v>3</v>
-      </c>
-      <c r="BL2">
-        <v>3</v>
-      </c>
-      <c r="BM2">
-        <v>3</v>
-      </c>
-      <c r="BN2">
-        <v>3</v>
-      </c>
-      <c r="BO2">
-        <v>3</v>
-      </c>
-      <c r="BP2">
-        <v>3</v>
-      </c>
-      <c r="BQ2">
-        <v>3</v>
-      </c>
-      <c r="BR2">
-        <v>3</v>
-      </c>
-      <c r="BS2">
-        <v>3</v>
-      </c>
-      <c r="BT2">
-        <v>-1</v>
-      </c>
-      <c r="BU2">
-        <v>-1</v>
-      </c>
-      <c r="BV2">
-        <v>-1</v>
-      </c>
-      <c r="BW2">
-        <v>-1</v>
-      </c>
-      <c r="BX2">
-        <v>-1</v>
-      </c>
-      <c r="BY2">
-        <v>-1</v>
-      </c>
-      <c r="BZ2">
-        <v>-1</v>
-      </c>
-      <c r="CA2">
-        <v>-1</v>
-      </c>
-      <c r="CB2">
-        <v>-1</v>
-      </c>
-      <c r="CC2">
-        <v>-1</v>
-      </c>
-      <c r="CD2">
-        <v>-1</v>
-      </c>
-      <c r="CE2">
-        <v>1</v>
-      </c>
-      <c r="CF2">
-        <v>1</v>
-      </c>
-      <c r="CG2">
-        <v>1</v>
-      </c>
-      <c r="CH2">
-        <v>1</v>
-      </c>
-      <c r="CI2">
-        <v>-1</v>
-      </c>
-      <c r="CJ2">
-        <v>-1</v>
-      </c>
-      <c r="CK2">
-        <v>-1</v>
-      </c>
-      <c r="CL2">
-        <v>-1</v>
-      </c>
-      <c r="CM2">
-        <v>-1</v>
-      </c>
-      <c r="CN2">
-        <v>-1</v>
-      </c>
-      <c r="CO2">
-        <v>-1</v>
-      </c>
-      <c r="CP2">
-        <v>-1</v>
-      </c>
-      <c r="CQ2">
-        <v>-1</v>
-      </c>
-      <c r="CR2">
-        <v>-1</v>
-      </c>
-      <c r="CS2">
-        <v>-1</v>
-      </c>
-      <c r="CT2">
-        <v>-1</v>
-      </c>
-      <c r="CU2">
-        <v>-1</v>
-      </c>
-      <c r="CV2">
-        <v>-1</v>
-      </c>
-      <c r="CW2">
-        <v>-1</v>
-      </c>
-      <c r="CX2">
-        <v>-1</v>
-      </c>
-      <c r="CY2">
-        <v>-1</v>
-      </c>
-      <c r="CZ2">
-        <v>-1</v>
-      </c>
-      <c r="DA2">
-        <v>-1</v>
-      </c>
-      <c r="DB2">
-        <v>-1</v>
-      </c>
-      <c r="DC2">
-        <v>-1</v>
-      </c>
-      <c r="DD2">
-        <v>-1</v>
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ET2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GK2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>-1</v>
@@ -1144,16 +2238,16 @@
         <v>-1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L3">
         <v>-1</v>
@@ -1195,22 +2289,22 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE3">
         <v>-1</v>
@@ -1255,85 +2349,85 @@
         <v>-1</v>
       </c>
       <c r="AS3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AT3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AU3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AZ3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BD3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BE3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BF3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BK3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BL3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BM3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BN3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BO3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BP3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BQ3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BR3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BS3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BT3">
         <v>-1</v>
@@ -1372,25 +2466,25 @@
         <v>-1</v>
       </c>
       <c r="CF3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CG3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CH3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="CI3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="CJ3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="CK3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="CL3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="CM3">
         <v>-1</v>
@@ -1415,11 +2509,296 @@
       </c>
       <c r="CT3">
         <v>-1</v>
+      </c>
+      <c r="CU3">
+        <v>-1</v>
+      </c>
+      <c r="CV3">
+        <v>-1</v>
+      </c>
+      <c r="CW3">
+        <v>-1</v>
+      </c>
+      <c r="CX3">
+        <v>-1</v>
+      </c>
+      <c r="CY3">
+        <v>-1</v>
+      </c>
+      <c r="CZ3">
+        <v>-1</v>
+      </c>
+      <c r="DA3">
+        <v>-1</v>
+      </c>
+      <c r="DB3">
+        <v>-1</v>
+      </c>
+      <c r="DC3">
+        <v>-1</v>
+      </c>
+      <c r="DD3">
+        <v>-1</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
+      <c r="EL3">
+        <v>0</v>
+      </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3">
+        <v>0</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
+        <v>0</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>0</v>
+      </c>
+      <c r="EY3">
+        <v>0</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0</v>
+      </c>
+      <c r="FB3">
+        <v>0</v>
+      </c>
+      <c r="FC3">
+        <v>0</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>0</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <v>0</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>0</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>0</v>
+      </c>
+      <c r="FY3">
+        <v>0</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GD3">
+        <v>0</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0</v>
+      </c>
+      <c r="GI3">
+        <v>0</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -1443,10 +2822,10 @@
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -1491,25 +2870,25 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF4">
         <v>-1</v>
@@ -1617,13 +2996,13 @@
         <v>-1</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BR4">
         <v>-1</v>
@@ -1671,22 +3050,22 @@
         <v>-1</v>
       </c>
       <c r="CG4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="CH4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="CI4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="CJ4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="CK4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="CL4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="CM4">
         <v>-1</v>
@@ -1713,279 +3092,294 @@
         <v>-1</v>
       </c>
       <c r="CU4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0</v>
+      </c>
+      <c r="GI4">
+        <v>0</v>
+      </c>
+      <c r="GJ4">
+        <v>0</v>
+      </c>
+      <c r="GK4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>-1</v>
@@ -2069,10 +3463,10 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>-1</v>
@@ -2123,13 +3517,13 @@
         <v>-1</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AX5">
         <v>-1</v>
@@ -2183,10 +3577,10 @@
         <v>-1</v>
       </c>
       <c r="BO5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
         <v>-1</v>
@@ -2240,16 +3634,16 @@
         <v>-1</v>
       </c>
       <c r="CH5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CI5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CJ5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CK5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CL5">
         <v>-1</v>
@@ -2390,22 +3784,22 @@
         <v>-1</v>
       </c>
       <c r="EF5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="EI5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="EJ5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="EK5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="EL5">
         <v>-1</v>
@@ -2447,19 +3841,19 @@
         <v>-1</v>
       </c>
       <c r="EY5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="EZ5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FA5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="FB5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="FC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="FD5">
         <v>-1</v>
@@ -2499,11 +3893,74 @@
       </c>
       <c r="FP5">
         <v>-1</v>
+      </c>
+      <c r="FQ5">
+        <v>-1</v>
+      </c>
+      <c r="FR5">
+        <v>-1</v>
+      </c>
+      <c r="FS5">
+        <v>-1</v>
+      </c>
+      <c r="FT5">
+        <v>-1</v>
+      </c>
+      <c r="FU5">
+        <v>-1</v>
+      </c>
+      <c r="FV5">
+        <v>-1</v>
+      </c>
+      <c r="FW5">
+        <v>-1</v>
+      </c>
+      <c r="FX5">
+        <v>-1</v>
+      </c>
+      <c r="FY5">
+        <v>-1</v>
+      </c>
+      <c r="FZ5">
+        <v>-1</v>
+      </c>
+      <c r="GA5">
+        <v>-1</v>
+      </c>
+      <c r="GB5">
+        <v>-1</v>
+      </c>
+      <c r="GC5">
+        <v>-1</v>
+      </c>
+      <c r="GD5">
+        <v>-1</v>
+      </c>
+      <c r="GE5">
+        <v>-1</v>
+      </c>
+      <c r="GF5">
+        <v>-1</v>
+      </c>
+      <c r="GG5">
+        <v>0</v>
+      </c>
+      <c r="GH5">
+        <v>0</v>
+      </c>
+      <c r="GI5">
+        <v>0</v>
+      </c>
+      <c r="GJ5">
+        <v>0</v>
+      </c>
+      <c r="GK5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>-1</v>
@@ -2575,316 +4032,316 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AH6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AI6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AL6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AM6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AN6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AO6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AR6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AU6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BA6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BD6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BE6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BF6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BH6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BI6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BK6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BL6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BM6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BN6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BO6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BP6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BQ6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BR6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BS6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BT6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BU6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BV6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BW6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BX6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BY6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BZ6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CA6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CB6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CC6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CD6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CE6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CF6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CG6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CH6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CJ6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CM6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CN6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CO6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CP6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CQ6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CR6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CS6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CT6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CU6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CV6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CW6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CX6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CY6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CZ6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DA6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DB6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DC6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DD6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DE6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DF6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DG6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DH6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DI6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DJ6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DK6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DL6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DM6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DN6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DO6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DP6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DQ6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DR6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DS6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DT6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DU6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DV6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DW6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DX6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="DY6">
         <v>-1</v>
@@ -2914,24 +4371,177 @@
         <v>-1</v>
       </c>
       <c r="EH6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="EL6">
         <v>-1</v>
+      </c>
+      <c r="EM6">
+        <v>-1</v>
+      </c>
+      <c r="EN6">
+        <v>-1</v>
+      </c>
+      <c r="EO6">
+        <v>-1</v>
+      </c>
+      <c r="EP6">
+        <v>-1</v>
+      </c>
+      <c r="EQ6">
+        <v>-1</v>
+      </c>
+      <c r="ER6">
+        <v>-1</v>
+      </c>
+      <c r="ES6">
+        <v>-1</v>
+      </c>
+      <c r="ET6">
+        <v>-1</v>
+      </c>
+      <c r="EU6">
+        <v>-1</v>
+      </c>
+      <c r="EV6">
+        <v>-1</v>
+      </c>
+      <c r="EW6">
+        <v>-1</v>
+      </c>
+      <c r="EX6">
+        <v>-1</v>
+      </c>
+      <c r="EY6">
+        <v>-1</v>
+      </c>
+      <c r="EZ6">
+        <v>1</v>
+      </c>
+      <c r="FA6">
+        <v>1</v>
+      </c>
+      <c r="FB6">
+        <v>1</v>
+      </c>
+      <c r="FC6">
+        <v>1</v>
+      </c>
+      <c r="FD6">
+        <v>-1</v>
+      </c>
+      <c r="FE6">
+        <v>-1</v>
+      </c>
+      <c r="FF6">
+        <v>-1</v>
+      </c>
+      <c r="FG6">
+        <v>-1</v>
+      </c>
+      <c r="FH6">
+        <v>-1</v>
+      </c>
+      <c r="FI6">
+        <v>-1</v>
+      </c>
+      <c r="FJ6">
+        <v>-1</v>
+      </c>
+      <c r="FK6">
+        <v>-1</v>
+      </c>
+      <c r="FL6">
+        <v>-1</v>
+      </c>
+      <c r="FM6">
+        <v>-1</v>
+      </c>
+      <c r="FN6">
+        <v>-1</v>
+      </c>
+      <c r="FO6">
+        <v>-1</v>
+      </c>
+      <c r="FP6">
+        <v>-1</v>
+      </c>
+      <c r="FQ6">
+        <v>0</v>
+      </c>
+      <c r="FR6">
+        <v>0</v>
+      </c>
+      <c r="FS6">
+        <v>0</v>
+      </c>
+      <c r="FT6">
+        <v>0</v>
+      </c>
+      <c r="FU6">
+        <v>0</v>
+      </c>
+      <c r="FV6">
+        <v>0</v>
+      </c>
+      <c r="FW6">
+        <v>0</v>
+      </c>
+      <c r="FX6">
+        <v>0</v>
+      </c>
+      <c r="FY6">
+        <v>0</v>
+      </c>
+      <c r="FZ6">
+        <v>0</v>
+      </c>
+      <c r="GA6">
+        <v>0</v>
+      </c>
+      <c r="GB6">
+        <v>0</v>
+      </c>
+      <c r="GC6">
+        <v>0</v>
+      </c>
+      <c r="GD6">
+        <v>0</v>
+      </c>
+      <c r="GE6">
+        <v>0</v>
+      </c>
+      <c r="GF6">
+        <v>0</v>
+      </c>
+      <c r="GG6">
+        <v>0</v>
+      </c>
+      <c r="GH6">
+        <v>0</v>
+      </c>
+      <c r="GI6">
+        <v>0</v>
+      </c>
+      <c r="GJ6">
+        <v>0</v>
+      </c>
+      <c r="GK6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -2973,16 +4583,16 @@
         <v>-1</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S7">
         <v>-1</v>
@@ -3003,280 +4613,280 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AE7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AG7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AH7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AI7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AK7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AL7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AM7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AN7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AO7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AP7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AR7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AU7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AZ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BA7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BD7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BE7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BF7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BK7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BL7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BM7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BN7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BO7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BP7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BQ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BR7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BS7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BT7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BU7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BV7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BW7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BX7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BY7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BZ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CA7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CB7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CC7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CD7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CE7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CF7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CG7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CH7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CI7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CJ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CK7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CL7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CM7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CN7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CO7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CP7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CQ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CR7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CS7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CT7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CU7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CV7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CW7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CX7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CY7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CZ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DA7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DB7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DC7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DD7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DE7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DF7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DG7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DH7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DI7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DJ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DK7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DL7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DM7">
         <v>2</v>
@@ -3288,31 +4898,31 @@
         <v>2</v>
       </c>
       <c r="DP7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DQ7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DR7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DS7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DT7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DU7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DV7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DW7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DX7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DY7">
         <v>-1</v>
@@ -3357,156 +4967,162 @@
         <v>-1</v>
       </c>
       <c r="EM7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EN7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EO7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EP7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EQ7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ER7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ES7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ET7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EU7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EV7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EW7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EX7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EY7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EZ7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FA7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FB7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FC7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FD7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FE7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FF7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FG7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FH7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FI7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FJ7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FK7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FL7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FM7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FN7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FO7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FP7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FQ7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FR7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FS7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FT7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FU7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FV7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FW7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FX7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FY7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FZ7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GA7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GB7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GC7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GD7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GE7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GF7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GG7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GH7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GI7">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="GJ7">
+        <v>0</v>
+      </c>
+      <c r="GK7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>-1</v>
@@ -3527,16 +5143,16 @@
         <v>-1</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -3548,16 +5164,16 @@
         <v>-1</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>-1</v>
@@ -3731,34 +5347,34 @@
         <v>-1</v>
       </c>
       <c r="BX8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BY8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BZ8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CA8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CB8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CC8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CD8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CE8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CF8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CG8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CH8">
         <v>-1</v>
@@ -3812,31 +5428,31 @@
         <v>-1</v>
       </c>
       <c r="CY8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="CZ8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DA8">
         <v>3</v>
       </c>
       <c r="DB8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DC8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DD8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DE8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DF8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DG8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DH8">
         <v>-1</v>
@@ -3854,13 +5470,13 @@
         <v>-1</v>
       </c>
       <c r="DM8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DN8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DO8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="DP8">
         <v>-1</v>
@@ -3971,37 +5587,37 @@
         <v>-1</v>
       </c>
       <c r="EZ8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FA8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FB8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FC8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FD8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FE8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FF8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FG8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FH8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FI8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FJ8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FK8">
         <v>-1</v>
@@ -4074,11 +5690,20 @@
       </c>
       <c r="GH8">
         <v>-1</v>
+      </c>
+      <c r="GI8">
+        <v>-1</v>
+      </c>
+      <c r="GJ8">
+        <v>0</v>
+      </c>
+      <c r="GK8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>-1</v>
@@ -4099,16 +5724,16 @@
         <v>-1</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -4120,19 +5745,19 @@
         <v>-1</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T9">
         <v>-1</v>
@@ -4219,58 +5844,58 @@
         <v>-1</v>
       </c>
       <c r="AV9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BA9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BD9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BE9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BF9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BH9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BI9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BK9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BL9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BM9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BN9">
         <v>-1</v>
@@ -4303,34 +5928,34 @@
         <v>-1</v>
       </c>
       <c r="BX9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BY9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BZ9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CA9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CB9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CC9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CD9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CE9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CF9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CG9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CH9">
         <v>-1</v>
@@ -4384,13 +6009,13 @@
         <v>-1</v>
       </c>
       <c r="CY9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="CZ9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DA9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DB9">
         <v>-1</v>
@@ -4501,25 +6126,25 @@
         <v>-1</v>
       </c>
       <c r="EL9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="EM9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="EN9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="EO9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="EP9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="EQ9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="ER9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="ES9">
         <v>-1</v>
@@ -4597,25 +6222,25 @@
         <v>-1</v>
       </c>
       <c r="FR9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="FS9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="FT9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="FU9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="FV9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="FW9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="FX9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="FY9">
         <v>-1</v>
@@ -4643,11 +6268,23 @@
       </c>
       <c r="GG9">
         <v>-1</v>
+      </c>
+      <c r="GH9">
+        <v>-1</v>
+      </c>
+      <c r="GI9">
+        <v>0</v>
+      </c>
+      <c r="GJ9">
+        <v>0</v>
+      </c>
+      <c r="GK9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>-1</v>
@@ -4689,19 +6326,19 @@
         <v>-1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T10">
         <v>-1</v>
@@ -4737,16 +6374,16 @@
         <v>-1</v>
       </c>
       <c r="AE10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AG10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AH10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AI10">
         <v>-1</v>
@@ -4788,58 +6425,58 @@
         <v>-1</v>
       </c>
       <c r="AV10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AZ10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BA10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BD10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BE10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BF10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BK10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BL10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BM10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BN10">
         <v>-1</v>
@@ -4869,16 +6506,16 @@
         <v>-1</v>
       </c>
       <c r="BW10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BX10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BY10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BZ10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CA10">
         <v>-1</v>
@@ -5001,19 +6638,19 @@
         <v>-1</v>
       </c>
       <c r="DO10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DP10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DQ10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DR10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DS10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DT10">
         <v>-1</v>
@@ -5070,25 +6707,25 @@
         <v>-1</v>
       </c>
       <c r="EL10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="EM10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="EN10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="EO10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="EP10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="EQ10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="ER10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="ES10">
         <v>-1</v>
@@ -5166,25 +6803,25 @@
         <v>-1</v>
       </c>
       <c r="FR10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FS10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FT10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FU10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FV10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FW10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FX10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="FY10">
         <v>-1</v>
@@ -5209,11 +6846,26 @@
       </c>
       <c r="GF10">
         <v>-1</v>
+      </c>
+      <c r="GG10">
+        <v>-1</v>
+      </c>
+      <c r="GH10">
+        <v>0</v>
+      </c>
+      <c r="GI10">
+        <v>0</v>
+      </c>
+      <c r="GJ10">
+        <v>0</v>
+      </c>
+      <c r="GK10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>-1</v>
@@ -5261,25 +6913,25 @@
         <v>-1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -5303,16 +6955,16 @@
         <v>-1</v>
       </c>
       <c r="AE11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AG11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AH11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AI11">
         <v>-1</v>
@@ -5417,34 +7069,34 @@
         <v>-1</v>
       </c>
       <c r="BQ11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BR11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BS11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BT11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BU11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BV11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BW11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CA11">
         <v>-1</v>
@@ -5525,10 +7177,10 @@
         <v>-1</v>
       </c>
       <c r="DA11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DB11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DC11">
         <v>-1</v>
@@ -5564,22 +7216,22 @@
         <v>-1</v>
       </c>
       <c r="DN11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DO11">
         <v>3</v>
       </c>
       <c r="DP11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DQ11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DR11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DS11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DT11">
         <v>-1</v>
@@ -5657,16 +7309,16 @@
         <v>-1</v>
       </c>
       <c r="ES11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="ET11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="EU11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="EV11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="EW11">
         <v>-1</v>
@@ -5703,11 +7355,98 @@
       </c>
       <c r="FH11">
         <v>-1</v>
+      </c>
+      <c r="FI11">
+        <v>-1</v>
+      </c>
+      <c r="FJ11">
+        <v>-1</v>
+      </c>
+      <c r="FK11">
+        <v>-1</v>
+      </c>
+      <c r="FL11">
+        <v>-1</v>
+      </c>
+      <c r="FM11">
+        <v>-1</v>
+      </c>
+      <c r="FN11">
+        <v>-1</v>
+      </c>
+      <c r="FO11">
+        <v>-1</v>
+      </c>
+      <c r="FP11">
+        <v>-1</v>
+      </c>
+      <c r="FQ11">
+        <v>-1</v>
+      </c>
+      <c r="FR11">
+        <v>-1</v>
+      </c>
+      <c r="FS11">
+        <v>-1</v>
+      </c>
+      <c r="FT11">
+        <v>-1</v>
+      </c>
+      <c r="FU11">
+        <v>-1</v>
+      </c>
+      <c r="FV11">
+        <v>-1</v>
+      </c>
+      <c r="FW11">
+        <v>-1</v>
+      </c>
+      <c r="FX11">
+        <v>-1</v>
+      </c>
+      <c r="FY11">
+        <v>-1</v>
+      </c>
+      <c r="FZ11">
+        <v>-1</v>
+      </c>
+      <c r="GA11">
+        <v>-1</v>
+      </c>
+      <c r="GB11">
+        <v>-1</v>
+      </c>
+      <c r="GC11">
+        <v>-1</v>
+      </c>
+      <c r="GD11">
+        <v>-1</v>
+      </c>
+      <c r="GE11">
+        <v>-1</v>
+      </c>
+      <c r="GF11">
+        <v>-1</v>
+      </c>
+      <c r="GG11">
+        <v>0</v>
+      </c>
+      <c r="GH11">
+        <v>0</v>
+      </c>
+      <c r="GI11">
+        <v>0</v>
+      </c>
+      <c r="GJ11">
+        <v>0</v>
+      </c>
+      <c r="GK11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>-1</v>
@@ -5731,16 +7470,16 @@
         <v>-1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -5755,25 +7494,25 @@
         <v>-1</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -5797,16 +7536,16 @@
         <v>-1</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AG12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AI12">
         <v>-1</v>
@@ -5857,19 +7596,19 @@
         <v>-1</v>
       </c>
       <c r="AY12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BD12">
         <v>-1</v>
@@ -5911,34 +7650,34 @@
         <v>-1</v>
       </c>
       <c r="BQ12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BR12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BZ12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CA12">
         <v>-1</v>
@@ -6019,10 +7758,10 @@
         <v>-1</v>
       </c>
       <c r="DA12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DB12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DC12">
         <v>-1</v>
@@ -6058,10 +7797,10 @@
         <v>-1</v>
       </c>
       <c r="DN12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DO12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="DP12">
         <v>-1</v>
@@ -6074,11 +7813,221 @@
       </c>
       <c r="DS12">
         <v>-1</v>
+      </c>
+      <c r="DT12">
+        <v>-1</v>
+      </c>
+      <c r="DU12">
+        <v>-1</v>
+      </c>
+      <c r="DV12">
+        <v>-1</v>
+      </c>
+      <c r="DW12">
+        <v>-1</v>
+      </c>
+      <c r="DX12">
+        <v>-1</v>
+      </c>
+      <c r="DY12">
+        <v>-1</v>
+      </c>
+      <c r="DZ12">
+        <v>-1</v>
+      </c>
+      <c r="EA12">
+        <v>-1</v>
+      </c>
+      <c r="EB12">
+        <v>-1</v>
+      </c>
+      <c r="EC12">
+        <v>-1</v>
+      </c>
+      <c r="ED12">
+        <v>-1</v>
+      </c>
+      <c r="EE12">
+        <v>-1</v>
+      </c>
+      <c r="EF12">
+        <v>-1</v>
+      </c>
+      <c r="EG12">
+        <v>-1</v>
+      </c>
+      <c r="EH12">
+        <v>-1</v>
+      </c>
+      <c r="EI12">
+        <v>-1</v>
+      </c>
+      <c r="EJ12">
+        <v>-1</v>
+      </c>
+      <c r="EK12">
+        <v>-1</v>
+      </c>
+      <c r="EL12">
+        <v>-1</v>
+      </c>
+      <c r="EM12">
+        <v>-1</v>
+      </c>
+      <c r="EN12">
+        <v>-1</v>
+      </c>
+      <c r="EO12">
+        <v>-1</v>
+      </c>
+      <c r="EP12">
+        <v>-1</v>
+      </c>
+      <c r="EQ12">
+        <v>-1</v>
+      </c>
+      <c r="ER12">
+        <v>-1</v>
+      </c>
+      <c r="ES12">
+        <v>3</v>
+      </c>
+      <c r="ET12">
+        <v>3</v>
+      </c>
+      <c r="EU12">
+        <v>3</v>
+      </c>
+      <c r="EV12">
+        <v>3</v>
+      </c>
+      <c r="EW12">
+        <v>-1</v>
+      </c>
+      <c r="EX12">
+        <v>-1</v>
+      </c>
+      <c r="EY12">
+        <v>-1</v>
+      </c>
+      <c r="EZ12">
+        <v>-1</v>
+      </c>
+      <c r="FA12">
+        <v>-1</v>
+      </c>
+      <c r="FB12">
+        <v>-1</v>
+      </c>
+      <c r="FC12">
+        <v>-1</v>
+      </c>
+      <c r="FD12">
+        <v>-1</v>
+      </c>
+      <c r="FE12">
+        <v>-1</v>
+      </c>
+      <c r="FF12">
+        <v>-1</v>
+      </c>
+      <c r="FG12">
+        <v>-1</v>
+      </c>
+      <c r="FH12">
+        <v>-1</v>
+      </c>
+      <c r="FI12">
+        <v>0</v>
+      </c>
+      <c r="FJ12">
+        <v>0</v>
+      </c>
+      <c r="FK12">
+        <v>0</v>
+      </c>
+      <c r="FL12">
+        <v>0</v>
+      </c>
+      <c r="FM12">
+        <v>0</v>
+      </c>
+      <c r="FN12">
+        <v>0</v>
+      </c>
+      <c r="FO12">
+        <v>0</v>
+      </c>
+      <c r="FP12">
+        <v>0</v>
+      </c>
+      <c r="FQ12">
+        <v>0</v>
+      </c>
+      <c r="FR12">
+        <v>0</v>
+      </c>
+      <c r="FS12">
+        <v>0</v>
+      </c>
+      <c r="FT12">
+        <v>0</v>
+      </c>
+      <c r="FU12">
+        <v>0</v>
+      </c>
+      <c r="FV12">
+        <v>0</v>
+      </c>
+      <c r="FW12">
+        <v>0</v>
+      </c>
+      <c r="FX12">
+        <v>0</v>
+      </c>
+      <c r="FY12">
+        <v>0</v>
+      </c>
+      <c r="FZ12">
+        <v>0</v>
+      </c>
+      <c r="GA12">
+        <v>0</v>
+      </c>
+      <c r="GB12">
+        <v>0</v>
+      </c>
+      <c r="GC12">
+        <v>0</v>
+      </c>
+      <c r="GD12">
+        <v>0</v>
+      </c>
+      <c r="GE12">
+        <v>0</v>
+      </c>
+      <c r="GF12">
+        <v>0</v>
+      </c>
+      <c r="GG12">
+        <v>0</v>
+      </c>
+      <c r="GH12">
+        <v>0</v>
+      </c>
+      <c r="GI12">
+        <v>0</v>
+      </c>
+      <c r="GJ12">
+        <v>0</v>
+      </c>
+      <c r="GK12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -6102,16 +8051,16 @@
         <v>-1</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -6120,16 +8069,16 @@
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S13">
         <v>-1</v>
@@ -6150,13 +8099,13 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -6168,16 +8117,16 @@
         <v>-1</v>
       </c>
       <c r="AE13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AG13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AH13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AI13">
         <v>-1</v>
@@ -6228,19 +8177,19 @@
         <v>-1</v>
       </c>
       <c r="AY13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AZ13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BA13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BD13">
         <v>-1</v>
@@ -6249,13 +8198,13 @@
         <v>-1</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BG13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BH13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BI13">
         <v>-1</v>
@@ -6276,40 +8225,40 @@
         <v>-1</v>
       </c>
       <c r="BO13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BP13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BQ13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BR13">
         <v>-1</v>
       </c>
       <c r="BS13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BT13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BU13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BV13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BW13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BX13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BY13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BZ13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CA13">
         <v>-1</v>
@@ -6375,16 +8324,16 @@
         <v>-1</v>
       </c>
       <c r="CV13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CW13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CX13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CY13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CZ13">
         <v>-1</v>
@@ -6405,10 +8354,10 @@
         <v>-1</v>
       </c>
       <c r="DF13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DG13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="DH13">
         <v>-1</v>
@@ -6447,219 +8396,219 @@
         <v>-1</v>
       </c>
       <c r="DT13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DU13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DV13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DW13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DX13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DY13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DZ13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EA13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EB13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EC13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ED13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EE13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EF13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EG13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EH13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EI13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EJ13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EK13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EL13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EM13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EN13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EO13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EP13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EQ13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ER13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ES13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="ET13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EU13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EV13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EW13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EX13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EY13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EZ13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FA13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FB13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FC13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FD13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FE13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FF13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FG13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FH13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FI13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FJ13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FK13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FL13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FM13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FN13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FO13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FP13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FQ13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FR13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FS13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FT13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FU13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FV13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FW13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FX13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FY13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="FZ13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GA13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GB13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GC13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GD13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GE13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GJ13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="GK13">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>-1</v>
@@ -6692,13 +8641,13 @@
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -6707,10 +8656,10 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>-1</v>
@@ -6731,13 +8680,13 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AB14">
         <v>-1</v>
@@ -6758,22 +8707,22 @@
         <v>-1</v>
       </c>
       <c r="AH14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AN14">
         <v>-1</v>
@@ -6824,22 +8773,22 @@
         <v>-1</v>
       </c>
       <c r="BD14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ14">
         <v>-1</v>
@@ -6857,13 +8806,13 @@
         <v>-1</v>
       </c>
       <c r="BO14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BP14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BQ14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BR14">
         <v>-1</v>
@@ -6887,19 +8836,19 @@
         <v>-1</v>
       </c>
       <c r="BY14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BZ14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CA14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CB14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CC14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CD14">
         <v>-1</v>
@@ -6944,366 +8893,1464 @@
         <v>-1</v>
       </c>
       <c r="CR14">
+        <v>-1</v>
+      </c>
+      <c r="CS14">
+        <v>-1</v>
+      </c>
+      <c r="CT14">
+        <v>-1</v>
+      </c>
+      <c r="CU14">
+        <v>-1</v>
+      </c>
+      <c r="CV14">
+        <v>1</v>
+      </c>
+      <c r="CW14">
+        <v>1</v>
+      </c>
+      <c r="CX14">
+        <v>1</v>
+      </c>
+      <c r="CY14">
+        <v>1</v>
+      </c>
+      <c r="CZ14">
+        <v>-1</v>
+      </c>
+      <c r="DA14">
+        <v>-1</v>
+      </c>
+      <c r="DB14">
+        <v>-1</v>
+      </c>
+      <c r="DC14">
+        <v>-1</v>
+      </c>
+      <c r="DD14">
+        <v>-1</v>
+      </c>
+      <c r="DE14">
+        <v>-1</v>
+      </c>
+      <c r="DF14">
+        <v>3</v>
+      </c>
+      <c r="DG14">
+        <v>3</v>
+      </c>
+      <c r="DH14">
+        <v>-1</v>
+      </c>
+      <c r="DI14">
+        <v>-1</v>
+      </c>
+      <c r="DJ14">
+        <v>-1</v>
+      </c>
+      <c r="DK14">
+        <v>-1</v>
+      </c>
+      <c r="DL14">
+        <v>-1</v>
+      </c>
+      <c r="DM14">
+        <v>-1</v>
+      </c>
+      <c r="DN14">
+        <v>-1</v>
+      </c>
+      <c r="DO14">
+        <v>-1</v>
+      </c>
+      <c r="DP14">
+        <v>-1</v>
+      </c>
+      <c r="DQ14">
+        <v>-1</v>
+      </c>
+      <c r="DR14">
+        <v>-1</v>
+      </c>
+      <c r="DS14">
+        <v>-1</v>
+      </c>
+      <c r="DT14">
+        <v>-1</v>
+      </c>
+      <c r="DU14">
+        <v>-1</v>
+      </c>
+      <c r="DV14">
+        <v>-1</v>
+      </c>
+      <c r="DW14">
+        <v>-1</v>
+      </c>
+      <c r="DX14">
+        <v>-1</v>
+      </c>
+      <c r="DY14">
+        <v>-1</v>
+      </c>
+      <c r="DZ14">
+        <v>-1</v>
+      </c>
+      <c r="EA14">
+        <v>-1</v>
+      </c>
+      <c r="EB14">
+        <v>-1</v>
+      </c>
+      <c r="EC14">
+        <v>-1</v>
+      </c>
+      <c r="ED14">
+        <v>-1</v>
+      </c>
+      <c r="EE14">
+        <v>-1</v>
+      </c>
+      <c r="EF14">
+        <v>-1</v>
+      </c>
+      <c r="EG14">
+        <v>-1</v>
+      </c>
+      <c r="EH14">
+        <v>-1</v>
+      </c>
+      <c r="EI14">
+        <v>-1</v>
+      </c>
+      <c r="EJ14">
+        <v>-1</v>
+      </c>
+      <c r="EK14">
+        <v>-1</v>
+      </c>
+      <c r="EL14">
+        <v>-1</v>
+      </c>
+      <c r="EM14">
+        <v>-1</v>
+      </c>
+      <c r="EN14">
+        <v>-1</v>
+      </c>
+      <c r="EO14">
+        <v>-1</v>
+      </c>
+      <c r="EP14">
+        <v>-1</v>
+      </c>
+      <c r="EQ14">
+        <v>-1</v>
+      </c>
+      <c r="ER14">
+        <v>-1</v>
+      </c>
+      <c r="ES14">
+        <v>-1</v>
+      </c>
+      <c r="ET14">
+        <v>-1</v>
+      </c>
+      <c r="EU14">
+        <v>-1</v>
+      </c>
+      <c r="EV14">
+        <v>-1</v>
+      </c>
+      <c r="EW14">
+        <v>-1</v>
+      </c>
+      <c r="EX14">
+        <v>-1</v>
+      </c>
+      <c r="EY14">
+        <v>-1</v>
+      </c>
+      <c r="EZ14">
+        <v>-1</v>
+      </c>
+      <c r="FA14">
+        <v>-1</v>
+      </c>
+      <c r="FB14">
+        <v>-1</v>
+      </c>
+      <c r="FC14">
+        <v>-1</v>
+      </c>
+      <c r="FD14">
+        <v>-1</v>
+      </c>
+      <c r="FE14">
+        <v>-1</v>
+      </c>
+      <c r="FF14">
+        <v>-1</v>
+      </c>
+      <c r="FG14">
+        <v>-1</v>
+      </c>
+      <c r="FH14">
+        <v>-1</v>
+      </c>
+      <c r="FI14">
+        <v>-1</v>
+      </c>
+      <c r="FJ14">
+        <v>-1</v>
+      </c>
+      <c r="FK14">
+        <v>-1</v>
+      </c>
+      <c r="FL14">
+        <v>-1</v>
+      </c>
+      <c r="FM14">
+        <v>-1</v>
+      </c>
+      <c r="FN14">
+        <v>-1</v>
+      </c>
+      <c r="FO14">
+        <v>-1</v>
+      </c>
+      <c r="FP14">
+        <v>-1</v>
+      </c>
+      <c r="FQ14">
+        <v>-1</v>
+      </c>
+      <c r="FR14">
+        <v>-1</v>
+      </c>
+      <c r="FS14">
+        <v>-1</v>
+      </c>
+      <c r="FT14">
+        <v>-1</v>
+      </c>
+      <c r="FU14">
+        <v>-1</v>
+      </c>
+      <c r="FV14">
+        <v>-1</v>
+      </c>
+      <c r="FW14">
+        <v>-1</v>
+      </c>
+      <c r="FX14">
+        <v>-1</v>
+      </c>
+      <c r="FY14">
+        <v>-1</v>
+      </c>
+      <c r="FZ14">
+        <v>-1</v>
+      </c>
+      <c r="GA14">
+        <v>-1</v>
+      </c>
+      <c r="GB14">
+        <v>-1</v>
+      </c>
+      <c r="GC14">
+        <v>-1</v>
+      </c>
+      <c r="GD14">
+        <v>-1</v>
+      </c>
+      <c r="GE14">
+        <v>-1</v>
+      </c>
+      <c r="GF14">
+        <v>1</v>
+      </c>
+      <c r="GG14">
+        <v>1</v>
+      </c>
+      <c r="GH14">
+        <v>1</v>
+      </c>
+      <c r="GI14">
+        <v>1</v>
+      </c>
+      <c r="GJ14">
+        <v>-1</v>
+      </c>
+      <c r="GK14">
         <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
+        <v>-1</v>
+      </c>
+      <c r="S15">
+        <v>-1</v>
+      </c>
+      <c r="T15">
+        <v>-1</v>
+      </c>
+      <c r="U15">
+        <v>-1</v>
+      </c>
+      <c r="V15">
+        <v>-1</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
+        <v>-1</v>
+      </c>
+      <c r="AD15">
+        <v>-1</v>
+      </c>
+      <c r="AE15">
+        <v>-1</v>
+      </c>
+      <c r="AF15">
+        <v>-1</v>
+      </c>
+      <c r="AG15">
+        <v>-1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>-1</v>
+      </c>
+      <c r="AO15">
+        <v>-1</v>
+      </c>
+      <c r="AP15">
+        <v>-1</v>
+      </c>
+      <c r="AQ15">
+        <v>-1</v>
+      </c>
+      <c r="AR15">
+        <v>-1</v>
+      </c>
+      <c r="AS15">
+        <v>-1</v>
+      </c>
+      <c r="AT15">
+        <v>-1</v>
+      </c>
+      <c r="AU15">
+        <v>-1</v>
+      </c>
+      <c r="AV15">
+        <v>-1</v>
+      </c>
+      <c r="AW15">
+        <v>-1</v>
+      </c>
+      <c r="AX15">
+        <v>-1</v>
+      </c>
+      <c r="AY15">
+        <v>-1</v>
+      </c>
+      <c r="AZ15">
+        <v>-1</v>
+      </c>
+      <c r="BA15">
+        <v>-1</v>
+      </c>
+      <c r="BB15">
+        <v>-1</v>
+      </c>
+      <c r="BC15">
+        <v>-1</v>
+      </c>
+      <c r="BD15">
+        <v>2</v>
+      </c>
+      <c r="BE15">
+        <v>2</v>
+      </c>
+      <c r="BF15">
+        <v>2</v>
+      </c>
+      <c r="BG15">
+        <v>2</v>
+      </c>
+      <c r="BH15">
+        <v>2</v>
+      </c>
+      <c r="BI15">
+        <v>2</v>
+      </c>
+      <c r="BJ15">
+        <v>-1</v>
+      </c>
+      <c r="BK15">
+        <v>-1</v>
+      </c>
+      <c r="BL15">
+        <v>-1</v>
+      </c>
+      <c r="BM15">
+        <v>-1</v>
+      </c>
+      <c r="BN15">
+        <v>-1</v>
+      </c>
+      <c r="BO15">
+        <v>-1</v>
+      </c>
+      <c r="BP15">
+        <v>-1</v>
+      </c>
+      <c r="BQ15">
+        <v>-1</v>
+      </c>
+      <c r="BR15">
+        <v>-1</v>
+      </c>
+      <c r="BS15">
+        <v>-1</v>
+      </c>
+      <c r="BT15">
+        <v>-1</v>
+      </c>
+      <c r="BU15">
+        <v>-1</v>
+      </c>
+      <c r="BV15">
+        <v>-1</v>
+      </c>
+      <c r="BW15">
+        <v>-1</v>
+      </c>
+      <c r="BX15">
+        <v>-1</v>
+      </c>
+      <c r="BY15">
+        <v>1</v>
+      </c>
+      <c r="BZ15">
+        <v>1</v>
+      </c>
+      <c r="CA15">
+        <v>1</v>
+      </c>
+      <c r="CB15">
+        <v>1</v>
+      </c>
+      <c r="CC15">
+        <v>1</v>
+      </c>
+      <c r="CD15">
+        <v>-1</v>
+      </c>
+      <c r="CE15">
+        <v>-1</v>
+      </c>
+      <c r="CF15">
+        <v>-1</v>
+      </c>
+      <c r="CG15">
+        <v>-1</v>
+      </c>
+      <c r="CH15">
+        <v>-1</v>
+      </c>
+      <c r="CI15">
+        <v>-1</v>
+      </c>
+      <c r="CJ15">
+        <v>-1</v>
+      </c>
+      <c r="CK15">
+        <v>-1</v>
+      </c>
+      <c r="CL15">
+        <v>-1</v>
+      </c>
+      <c r="CM15">
+        <v>-1</v>
+      </c>
+      <c r="CN15">
+        <v>-1</v>
+      </c>
+      <c r="CO15">
+        <v>-1</v>
+      </c>
+      <c r="CP15">
+        <v>-1</v>
+      </c>
+      <c r="CQ15">
+        <v>-1</v>
+      </c>
+      <c r="CR15">
+        <v>-1</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DB15">
+        <v>0</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DD15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DF15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DH15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>0</v>
+      </c>
+      <c r="DJ15">
+        <v>0</v>
+      </c>
+      <c r="DK15">
+        <v>0</v>
+      </c>
+      <c r="DL15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>0</v>
+      </c>
+      <c r="DN15">
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <v>0</v>
+      </c>
+      <c r="DP15">
+        <v>0</v>
+      </c>
+      <c r="DQ15">
+        <v>0</v>
+      </c>
+      <c r="DR15">
+        <v>0</v>
+      </c>
+      <c r="DS15">
+        <v>0</v>
+      </c>
+      <c r="DT15">
+        <v>0</v>
+      </c>
+      <c r="DU15">
+        <v>0</v>
+      </c>
+      <c r="DV15">
+        <v>0</v>
+      </c>
+      <c r="DW15">
+        <v>0</v>
+      </c>
+      <c r="DX15">
+        <v>0</v>
+      </c>
+      <c r="DY15">
+        <v>0</v>
+      </c>
+      <c r="DZ15">
+        <v>0</v>
+      </c>
+      <c r="EA15">
+        <v>0</v>
+      </c>
+      <c r="EB15">
+        <v>0</v>
+      </c>
+      <c r="EC15">
+        <v>0</v>
+      </c>
+      <c r="ED15">
+        <v>0</v>
+      </c>
+      <c r="EE15">
+        <v>0</v>
+      </c>
+      <c r="EF15">
+        <v>0</v>
+      </c>
+      <c r="EG15">
+        <v>0</v>
+      </c>
+      <c r="EH15">
+        <v>0</v>
+      </c>
+      <c r="EI15">
+        <v>0</v>
+      </c>
+      <c r="EJ15">
+        <v>0</v>
+      </c>
+      <c r="EK15">
+        <v>0</v>
+      </c>
+      <c r="EL15">
+        <v>0</v>
+      </c>
+      <c r="EM15">
+        <v>0</v>
+      </c>
+      <c r="EN15">
+        <v>0</v>
+      </c>
+      <c r="EO15">
+        <v>0</v>
+      </c>
+      <c r="EP15">
+        <v>0</v>
+      </c>
+      <c r="EQ15">
+        <v>0</v>
+      </c>
+      <c r="ER15">
+        <v>0</v>
+      </c>
+      <c r="ES15">
+        <v>0</v>
+      </c>
+      <c r="ET15">
+        <v>0</v>
+      </c>
+      <c r="EU15">
+        <v>0</v>
+      </c>
+      <c r="EV15">
+        <v>0</v>
+      </c>
+      <c r="EW15">
+        <v>0</v>
+      </c>
+      <c r="EX15">
+        <v>0</v>
+      </c>
+      <c r="EY15">
+        <v>0</v>
+      </c>
+      <c r="EZ15">
+        <v>0</v>
+      </c>
+      <c r="FA15">
+        <v>0</v>
+      </c>
+      <c r="FB15">
+        <v>0</v>
+      </c>
+      <c r="FC15">
+        <v>0</v>
+      </c>
+      <c r="FD15">
+        <v>0</v>
+      </c>
+      <c r="FE15">
+        <v>0</v>
+      </c>
+      <c r="FF15">
+        <v>0</v>
+      </c>
+      <c r="FG15">
+        <v>0</v>
+      </c>
+      <c r="FH15">
+        <v>0</v>
+      </c>
+      <c r="FI15">
+        <v>0</v>
+      </c>
+      <c r="FJ15">
+        <v>0</v>
+      </c>
+      <c r="FK15">
+        <v>0</v>
+      </c>
+      <c r="FL15">
+        <v>0</v>
+      </c>
+      <c r="FM15">
+        <v>0</v>
+      </c>
+      <c r="FN15">
+        <v>0</v>
+      </c>
+      <c r="FO15">
+        <v>0</v>
+      </c>
+      <c r="FP15">
+        <v>0</v>
+      </c>
+      <c r="FQ15">
+        <v>0</v>
+      </c>
+      <c r="FR15">
+        <v>0</v>
+      </c>
+      <c r="FS15">
+        <v>0</v>
+      </c>
+      <c r="FT15">
+        <v>0</v>
+      </c>
+      <c r="FU15">
+        <v>0</v>
+      </c>
+      <c r="FV15">
+        <v>0</v>
+      </c>
+      <c r="FW15">
+        <v>0</v>
+      </c>
+      <c r="FX15">
+        <v>0</v>
+      </c>
+      <c r="FY15">
+        <v>0</v>
+      </c>
+      <c r="FZ15">
+        <v>0</v>
+      </c>
+      <c r="GA15">
+        <v>0</v>
+      </c>
+      <c r="GB15">
+        <v>0</v>
+      </c>
+      <c r="GC15">
+        <v>0</v>
+      </c>
+      <c r="GD15">
+        <v>0</v>
+      </c>
+      <c r="GE15">
+        <v>0</v>
+      </c>
+      <c r="GF15">
+        <v>0</v>
+      </c>
+      <c r="GG15">
+        <v>0</v>
+      </c>
+      <c r="GH15">
+        <v>0</v>
+      </c>
+      <c r="GI15">
+        <v>0</v>
+      </c>
+      <c r="GJ15">
+        <v>0</v>
+      </c>
+      <c r="GK15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:193" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>-1</v>
-      </c>
-      <c r="C15">
-        <v>-1</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15">
-        <v>-1</v>
-      </c>
-      <c r="F15">
-        <v>-1</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-      <c r="H15">
-        <v>-1</v>
-      </c>
-      <c r="I15">
-        <v>-1</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>-1</v>
-      </c>
-      <c r="P15">
-        <v>-1</v>
-      </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-      <c r="R15">
-        <v>-1</v>
-      </c>
-      <c r="S15">
-        <v>-1</v>
-      </c>
-      <c r="T15">
-        <v>-1</v>
-      </c>
-      <c r="U15">
-        <v>-1</v>
-      </c>
-      <c r="V15">
-        <v>-1</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>-1</v>
-      </c>
-      <c r="AE15">
-        <v>-1</v>
-      </c>
-      <c r="AF15">
-        <v>-1</v>
-      </c>
-      <c r="AG15">
-        <v>-1</v>
-      </c>
-      <c r="AH15">
-        <v>-1</v>
-      </c>
-      <c r="AI15">
-        <v>-1</v>
-      </c>
-      <c r="AJ15">
-        <v>-1</v>
-      </c>
-      <c r="AK15">
-        <v>-1</v>
-      </c>
-      <c r="AL15">
-        <v>1</v>
-      </c>
-      <c r="AM15">
-        <v>1</v>
-      </c>
-      <c r="AN15">
-        <v>-1</v>
-      </c>
-      <c r="AO15">
-        <v>-1</v>
-      </c>
-      <c r="AP15">
-        <v>-1</v>
-      </c>
-      <c r="AQ15">
-        <v>-1</v>
-      </c>
-      <c r="AR15">
-        <v>-1</v>
-      </c>
-      <c r="AS15">
-        <v>-1</v>
-      </c>
-      <c r="AT15">
-        <v>-1</v>
-      </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>1</v>
-      </c>
-      <c r="AX15">
-        <v>-1</v>
-      </c>
-      <c r="AY15">
-        <v>-1</v>
-      </c>
-      <c r="AZ15">
-        <v>-1</v>
-      </c>
-      <c r="BA15">
-        <v>-1</v>
-      </c>
-      <c r="BB15">
-        <v>-1</v>
-      </c>
-      <c r="BC15">
-        <v>-1</v>
-      </c>
-      <c r="BD15">
-        <v>-1</v>
-      </c>
-      <c r="BE15">
-        <v>-1</v>
-      </c>
-      <c r="BF15">
-        <v>1</v>
-      </c>
-      <c r="BG15">
-        <v>1</v>
-      </c>
-      <c r="BH15">
-        <v>1</v>
-      </c>
-      <c r="BI15">
-        <v>-1</v>
-      </c>
-      <c r="BJ15">
-        <v>-1</v>
-      </c>
-      <c r="BK15">
-        <v>-1</v>
-      </c>
-      <c r="BL15">
-        <v>-1</v>
-      </c>
-      <c r="BM15">
-        <v>-1</v>
-      </c>
-      <c r="BN15">
-        <v>-1</v>
-      </c>
-      <c r="BO15">
-        <v>-1</v>
-      </c>
-      <c r="BP15">
-        <v>-1</v>
-      </c>
-      <c r="BQ15">
-        <v>1</v>
-      </c>
-      <c r="BR15">
-        <v>1</v>
-      </c>
-      <c r="BS15">
-        <v>1</v>
-      </c>
-      <c r="BT15">
-        <v>-1</v>
-      </c>
-      <c r="BU15">
-        <v>-1</v>
-      </c>
-      <c r="BV15">
-        <v>-1</v>
-      </c>
-      <c r="BW15">
-        <v>-1</v>
-      </c>
-      <c r="BX15">
-        <v>-1</v>
-      </c>
-      <c r="BY15">
-        <v>-1</v>
-      </c>
-      <c r="BZ15">
-        <v>1</v>
-      </c>
-      <c r="CA15">
-        <v>1</v>
-      </c>
-      <c r="CB15">
-        <v>1</v>
-      </c>
-      <c r="CC15">
-        <v>1</v>
-      </c>
-      <c r="CD15">
-        <v>-1</v>
-      </c>
-      <c r="CE15">
-        <v>-1</v>
-      </c>
-      <c r="CF15">
-        <v>-1</v>
-      </c>
-      <c r="CG15">
-        <v>-1</v>
-      </c>
-      <c r="CH15">
-        <v>-1</v>
-      </c>
-      <c r="CI15">
-        <v>-1</v>
-      </c>
-      <c r="CJ15">
-        <v>-1</v>
-      </c>
-      <c r="CK15">
-        <v>1</v>
-      </c>
-      <c r="CL15">
-        <v>1</v>
-      </c>
-      <c r="CM15">
-        <v>1</v>
-      </c>
-      <c r="CN15">
-        <v>-1</v>
-      </c>
-      <c r="CO15">
-        <v>-1</v>
-      </c>
-      <c r="CP15">
-        <v>-1</v>
-      </c>
-      <c r="CQ15">
-        <v>-1</v>
-      </c>
-      <c r="CR15">
-        <v>-1</v>
-      </c>
-      <c r="CS15">
-        <v>-1</v>
-      </c>
-      <c r="CT15">
-        <v>-1</v>
-      </c>
-      <c r="CU15">
-        <v>-1</v>
-      </c>
-      <c r="CV15">
-        <v>1</v>
-      </c>
-      <c r="CW15">
-        <v>1</v>
-      </c>
-      <c r="CX15">
-        <v>1</v>
-      </c>
-      <c r="CY15">
-        <v>-1</v>
-      </c>
-      <c r="CZ15">
-        <v>-1</v>
-      </c>
-      <c r="DA15">
-        <v>-1</v>
-      </c>
-      <c r="DB15">
-        <v>-1</v>
-      </c>
-      <c r="DC15">
-        <v>-1</v>
-      </c>
-      <c r="DD15">
-        <v>-1</v>
-      </c>
-      <c r="DE15">
-        <v>-1</v>
-      </c>
-      <c r="DF15">
-        <v>-1</v>
-      </c>
-      <c r="DG15">
-        <v>-1</v>
-      </c>
-      <c r="DH15">
-        <v>-1</v>
-      </c>
-      <c r="DI15">
-        <v>-1</v>
-      </c>
-      <c r="DJ15">
-        <v>-1</v>
-      </c>
-      <c r="DK15">
-        <v>-1</v>
-      </c>
-      <c r="DL15">
-        <v>-1</v>
-      </c>
-      <c r="DM15">
-        <v>-1</v>
-      </c>
-      <c r="DN15">
-        <v>-1</v>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>-1</v>
+      </c>
+      <c r="P16">
+        <v>-1</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>-1</v>
+      </c>
+      <c r="S16">
+        <v>-1</v>
+      </c>
+      <c r="T16">
+        <v>-1</v>
+      </c>
+      <c r="U16">
+        <v>-1</v>
+      </c>
+      <c r="V16">
+        <v>-1</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>-1</v>
+      </c>
+      <c r="AE16">
+        <v>-1</v>
+      </c>
+      <c r="AF16">
+        <v>-1</v>
+      </c>
+      <c r="AG16">
+        <v>-1</v>
+      </c>
+      <c r="AH16">
+        <v>-1</v>
+      </c>
+      <c r="AI16">
+        <v>-1</v>
+      </c>
+      <c r="AJ16">
+        <v>-1</v>
+      </c>
+      <c r="AK16">
+        <v>-1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>-1</v>
+      </c>
+      <c r="AO16">
+        <v>-1</v>
+      </c>
+      <c r="AP16">
+        <v>-1</v>
+      </c>
+      <c r="AQ16">
+        <v>-1</v>
+      </c>
+      <c r="AR16">
+        <v>-1</v>
+      </c>
+      <c r="AS16">
+        <v>-1</v>
+      </c>
+      <c r="AT16">
+        <v>-1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>-1</v>
+      </c>
+      <c r="AY16">
+        <v>-1</v>
+      </c>
+      <c r="AZ16">
+        <v>-1</v>
+      </c>
+      <c r="BA16">
+        <v>-1</v>
+      </c>
+      <c r="BB16">
+        <v>-1</v>
+      </c>
+      <c r="BC16">
+        <v>-1</v>
+      </c>
+      <c r="BD16">
+        <v>-1</v>
+      </c>
+      <c r="BE16">
+        <v>-1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>1</v>
+      </c>
+      <c r="BI16">
+        <v>-1</v>
+      </c>
+      <c r="BJ16">
+        <v>-1</v>
+      </c>
+      <c r="BK16">
+        <v>-1</v>
+      </c>
+      <c r="BL16">
+        <v>-1</v>
+      </c>
+      <c r="BM16">
+        <v>-1</v>
+      </c>
+      <c r="BN16">
+        <v>-1</v>
+      </c>
+      <c r="BO16">
+        <v>-1</v>
+      </c>
+      <c r="BP16">
+        <v>-1</v>
+      </c>
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16">
+        <v>1</v>
+      </c>
+      <c r="BS16">
+        <v>1</v>
+      </c>
+      <c r="BT16">
+        <v>-1</v>
+      </c>
+      <c r="BU16">
+        <v>-1</v>
+      </c>
+      <c r="BV16">
+        <v>-1</v>
+      </c>
+      <c r="BW16">
+        <v>-1</v>
+      </c>
+      <c r="BX16">
+        <v>-1</v>
+      </c>
+      <c r="BY16">
+        <v>-1</v>
+      </c>
+      <c r="BZ16">
+        <v>1</v>
+      </c>
+      <c r="CA16">
+        <v>1</v>
+      </c>
+      <c r="CB16">
+        <v>1</v>
+      </c>
+      <c r="CC16">
+        <v>1</v>
+      </c>
+      <c r="CD16">
+        <v>-1</v>
+      </c>
+      <c r="CE16">
+        <v>-1</v>
+      </c>
+      <c r="CF16">
+        <v>-1</v>
+      </c>
+      <c r="CG16">
+        <v>-1</v>
+      </c>
+      <c r="CH16">
+        <v>-1</v>
+      </c>
+      <c r="CI16">
+        <v>-1</v>
+      </c>
+      <c r="CJ16">
+        <v>-1</v>
+      </c>
+      <c r="CK16">
+        <v>1</v>
+      </c>
+      <c r="CL16">
+        <v>1</v>
+      </c>
+      <c r="CM16">
+        <v>1</v>
+      </c>
+      <c r="CN16">
+        <v>-1</v>
+      </c>
+      <c r="CO16">
+        <v>-1</v>
+      </c>
+      <c r="CP16">
+        <v>-1</v>
+      </c>
+      <c r="CQ16">
+        <v>-1</v>
+      </c>
+      <c r="CR16">
+        <v>-1</v>
+      </c>
+      <c r="CS16">
+        <v>-1</v>
+      </c>
+      <c r="CT16">
+        <v>-1</v>
+      </c>
+      <c r="CU16">
+        <v>-1</v>
+      </c>
+      <c r="CV16">
+        <v>1</v>
+      </c>
+      <c r="CW16">
+        <v>1</v>
+      </c>
+      <c r="CX16">
+        <v>1</v>
+      </c>
+      <c r="CY16">
+        <v>-1</v>
+      </c>
+      <c r="CZ16">
+        <v>-1</v>
+      </c>
+      <c r="DA16">
+        <v>-1</v>
+      </c>
+      <c r="DB16">
+        <v>-1</v>
+      </c>
+      <c r="DC16">
+        <v>-1</v>
+      </c>
+      <c r="DD16">
+        <v>-1</v>
+      </c>
+      <c r="DE16">
+        <v>-1</v>
+      </c>
+      <c r="DF16">
+        <v>-1</v>
+      </c>
+      <c r="DG16">
+        <v>-1</v>
+      </c>
+      <c r="DH16">
+        <v>-1</v>
+      </c>
+      <c r="DI16">
+        <v>-1</v>
+      </c>
+      <c r="DJ16">
+        <v>-1</v>
+      </c>
+      <c r="DK16">
+        <v>-1</v>
+      </c>
+      <c r="DL16">
+        <v>-1</v>
+      </c>
+      <c r="DM16">
+        <v>-1</v>
+      </c>
+      <c r="DN16">
+        <v>-1</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DP16">
+        <v>0</v>
+      </c>
+      <c r="DQ16">
+        <v>0</v>
+      </c>
+      <c r="DR16">
+        <v>0</v>
+      </c>
+      <c r="DS16">
+        <v>0</v>
+      </c>
+      <c r="DT16">
+        <v>0</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DV16">
+        <v>0</v>
+      </c>
+      <c r="DW16">
+        <v>0</v>
+      </c>
+      <c r="DX16">
+        <v>0</v>
+      </c>
+      <c r="DY16">
+        <v>0</v>
+      </c>
+      <c r="DZ16">
+        <v>0</v>
+      </c>
+      <c r="EA16">
+        <v>0</v>
+      </c>
+      <c r="EB16">
+        <v>0</v>
+      </c>
+      <c r="EC16">
+        <v>0</v>
+      </c>
+      <c r="ED16">
+        <v>0</v>
+      </c>
+      <c r="EE16">
+        <v>0</v>
+      </c>
+      <c r="EF16">
+        <v>0</v>
+      </c>
+      <c r="EG16">
+        <v>0</v>
+      </c>
+      <c r="EH16">
+        <v>0</v>
+      </c>
+      <c r="EI16">
+        <v>0</v>
+      </c>
+      <c r="EJ16">
+        <v>0</v>
+      </c>
+      <c r="EK16">
+        <v>0</v>
+      </c>
+      <c r="EL16">
+        <v>0</v>
+      </c>
+      <c r="EM16">
+        <v>0</v>
+      </c>
+      <c r="EN16">
+        <v>0</v>
+      </c>
+      <c r="EO16">
+        <v>0</v>
+      </c>
+      <c r="EP16">
+        <v>0</v>
+      </c>
+      <c r="EQ16">
+        <v>0</v>
+      </c>
+      <c r="ER16">
+        <v>0</v>
+      </c>
+      <c r="ES16">
+        <v>0</v>
+      </c>
+      <c r="ET16">
+        <v>0</v>
+      </c>
+      <c r="EU16">
+        <v>0</v>
+      </c>
+      <c r="EV16">
+        <v>0</v>
+      </c>
+      <c r="EW16">
+        <v>0</v>
+      </c>
+      <c r="EX16">
+        <v>0</v>
+      </c>
+      <c r="EY16">
+        <v>0</v>
+      </c>
+      <c r="EZ16">
+        <v>0</v>
+      </c>
+      <c r="FA16">
+        <v>0</v>
+      </c>
+      <c r="FB16">
+        <v>0</v>
+      </c>
+      <c r="FC16">
+        <v>0</v>
+      </c>
+      <c r="FD16">
+        <v>0</v>
+      </c>
+      <c r="FE16">
+        <v>0</v>
+      </c>
+      <c r="FF16">
+        <v>0</v>
+      </c>
+      <c r="FG16">
+        <v>0</v>
+      </c>
+      <c r="FH16">
+        <v>0</v>
+      </c>
+      <c r="FI16">
+        <v>0</v>
+      </c>
+      <c r="FJ16">
+        <v>0</v>
+      </c>
+      <c r="FK16">
+        <v>0</v>
+      </c>
+      <c r="FL16">
+        <v>0</v>
+      </c>
+      <c r="FM16">
+        <v>0</v>
+      </c>
+      <c r="FN16">
+        <v>0</v>
+      </c>
+      <c r="FO16">
+        <v>0</v>
+      </c>
+      <c r="FP16">
+        <v>0</v>
+      </c>
+      <c r="FQ16">
+        <v>0</v>
+      </c>
+      <c r="FR16">
+        <v>0</v>
+      </c>
+      <c r="FS16">
+        <v>0</v>
+      </c>
+      <c r="FT16">
+        <v>0</v>
+      </c>
+      <c r="FU16">
+        <v>0</v>
+      </c>
+      <c r="FV16">
+        <v>0</v>
+      </c>
+      <c r="FW16">
+        <v>0</v>
+      </c>
+      <c r="FX16">
+        <v>0</v>
+      </c>
+      <c r="FY16">
+        <v>0</v>
+      </c>
+      <c r="FZ16">
+        <v>0</v>
+      </c>
+      <c r="GA16">
+        <v>0</v>
+      </c>
+      <c r="GB16">
+        <v>0</v>
+      </c>
+      <c r="GC16">
+        <v>0</v>
+      </c>
+      <c r="GD16">
+        <v>0</v>
+      </c>
+      <c r="GE16">
+        <v>0</v>
+      </c>
+      <c r="GF16">
+        <v>0</v>
+      </c>
+      <c r="GG16">
+        <v>0</v>
+      </c>
+      <c r="GH16">
+        <v>0</v>
+      </c>
+      <c r="GI16">
+        <v>0</v>
+      </c>
+      <c r="GJ16">
+        <v>0</v>
+      </c>
+      <c r="GK16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7313,7 +10360,7 @@
   <dimension ref="A1:S193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7326,8 +10373,8 @@
         <v>17</v>
       </c>
       <c r="C1">
-        <f>COUNTIF(dance_data!A1:R195, -1)</f>
-        <v>220</v>
+        <f>COUNTIF(dance_data!A2:R196, -1)</f>
+        <v>222</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -7383,8 +10430,8 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <f>COUNTIF(dance_data!A1:R195, 1)</f>
-        <v>17</v>
+        <f>COUNTIF(dance_data!A2:R196, 1)</f>
+        <v>15</v>
       </c>
       <c r="E2" s="1">
         <v>-1</v>
@@ -7440,7 +10487,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <f>COUNTIF(dance_data!A1:R195, 2)</f>
+        <f>COUNTIF(dance_data!A2:R196, 2)</f>
         <v>4</v>
       </c>
       <c r="E3" s="1">
@@ -7497,7 +10544,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>COUNTIF(dance_data!A1:R195, 3)</f>
+        <f>COUNTIF(dance_data!A2:R196, 3)</f>
         <v>14</v>
       </c>
       <c r="E4" s="1">
